--- a/ocms/src/test/resources/TestData/OCMViolationAccuracyReportData.xlsx
+++ b/ocms/src/test/resources/TestData/OCMViolationAccuracyReportData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF9CBE4-27C1-42EE-9492-C360113BCB25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8932DAE6-5083-433E-8A47-D7E12489C49F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{74B861FD-34C5-47F3-81D0-26F9A97213FB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6" xr2:uid="{74B861FD-34C5-47F3-81D0-26F9A97213FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="52">
   <si>
     <t>Report Channel</t>
   </si>
@@ -61,15 +61,9 @@
     <t>Remote Security</t>
   </si>
   <si>
-    <t>OCM Violation Accuracy Report</t>
-  </si>
-  <si>
     <t>Single Date</t>
   </si>
   <si>
-    <t>06-04-2021 00:00:00</t>
-  </si>
-  <si>
     <t>Deleted</t>
   </si>
   <si>
@@ -91,12 +85,6 @@
     <t>Date Range</t>
   </si>
   <si>
-    <t>01-04-2021 00:00:00</t>
-  </si>
-  <si>
-    <t>08-04-2021 00:00:00</t>
-  </si>
-  <si>
     <t>Event Name</t>
   </si>
   <si>
@@ -133,9 +121,6 @@
     <t>CameraBlockDetected</t>
   </si>
   <si>
-    <t>Org. Unit</t>
-  </si>
-  <si>
     <t>Camera</t>
   </si>
   <si>
@@ -148,9 +133,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>angal</t>
-  </si>
-  <si>
     <t>Does not contain</t>
   </si>
   <si>
@@ -176,16 +158,61 @@
   </si>
   <si>
     <t>Background</t>
+  </si>
+  <si>
+    <t>OCM Event Accuracy Report</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>27-10-2021 00:00:00</t>
+  </si>
+  <si>
+    <t>01-10-2021 00:00:00</t>
+  </si>
+  <si>
+    <t>10-11-2021 00:00:00</t>
+  </si>
+  <si>
+    <t>10-11-2021 00:00:01</t>
+  </si>
+  <si>
+    <t>10-11-2021 00:00:02</t>
+  </si>
+  <si>
+    <t>10-11-2021 00:00:03</t>
+  </si>
+  <si>
+    <t>10-11-2021 00:00:04</t>
+  </si>
+  <si>
+    <t>10-11-2021 00:00:05</t>
+  </si>
+  <si>
+    <t>01-10-2021 00:00:04</t>
+  </si>
+  <si>
+    <t>01-10-2021 00:00:05</t>
+  </si>
+  <si>
+    <t>RemoteSecurity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -532,7 +559,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -563,19 +590,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -587,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D78229-7652-4146-9891-372E2CCC6E45}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -616,25 +643,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -642,31 +669,31 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
       <c r="J2" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -674,25 +701,25 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
       <c r="I3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -700,25 +727,25 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -726,25 +753,25 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -752,25 +779,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -778,31 +805,32 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
       <c r="H7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -813,7 +841,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -844,19 +872,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -869,7 +897,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -892,27 +920,27 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -925,7 +953,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -955,27 +983,27 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -988,7 +1016,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1012,33 +1040,33 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1050,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5677390E-1C85-47ED-AFC7-90D0C76737A7}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1080,211 +1108,212 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
